--- a/cheat.xlsx
+++ b/cheat.xlsx
@@ -502,7 +502,7 @@
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>salut</t>
+          <t>task C</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">

--- a/cheat.xlsx
+++ b/cheat.xlsx
@@ -487,12 +487,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>15/06/2004</t>
+          <t>15/06/2025</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>22/02/2023</t>
+          <t>22/02/2032</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -512,7 +512,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>22/02/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -527,12 +527,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>12/04/2005</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22/02/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -547,12 +547,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>24/04/2026</t>
+          <t>23/03/2025</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22/02/2023</t>
+          <t>22/0/2030</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">

--- a/cheat.xlsx
+++ b/cheat.xlsx
@@ -482,7 +482,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>t A</t>
+          <t>task A</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>task C</t>
+          <t>task B</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">

--- a/cheat.xlsx
+++ b/cheat.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22/09/2023</t>
+          <t>27/8/2024</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
